--- a/dataset/cleanData/dataYear/data_2021.xlsx
+++ b/dataset/cleanData/dataYear/data_2021.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -570,8 +566,8 @@
           <t>2301</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>44560</v>
+      <c r="B2" t="n">
+        <v>20211230</v>
       </c>
       <c r="C2" t="n">
         <v>147110891</v>
@@ -649,8 +645,8 @@
           <t>2305</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>44560</v>
+      <c r="B3" t="n">
+        <v>20211230</v>
       </c>
       <c r="C3" t="n">
         <v>1293237</v>
@@ -728,8 +724,8 @@
           <t>2324</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>44560</v>
+      <c r="B4" t="n">
+        <v>20211230</v>
       </c>
       <c r="C4" t="n">
         <v>487115390</v>
@@ -807,8 +803,8 @@
           <t>2331</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>44560</v>
+      <c r="B5" t="n">
+        <v>20211230</v>
       </c>
       <c r="C5" t="n">
         <v>18284392</v>
@@ -886,8 +882,8 @@
           <t>2352</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>44560</v>
+      <c r="B6" t="n">
+        <v>20211230</v>
       </c>
       <c r="C6" t="n">
         <v>109920440</v>
@@ -965,8 +961,8 @@
           <t>2353</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>44560</v>
+      <c r="B7" t="n">
+        <v>20211230</v>
       </c>
       <c r="C7" t="n">
         <v>175095238</v>
@@ -1044,8 +1040,8 @@
           <t>2356</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>44560</v>
+      <c r="B8" t="n">
+        <v>20211230</v>
       </c>
       <c r="C8" t="n">
         <v>207623422</v>
@@ -1123,8 +1119,8 @@
           <t>2357</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>44560</v>
+      <c r="B9" t="n">
+        <v>20211230</v>
       </c>
       <c r="C9" t="n">
         <v>348705042</v>
@@ -1202,8 +1198,8 @@
           <t>2362</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>44560</v>
+      <c r="B10" t="n">
+        <v>20211230</v>
       </c>
       <c r="C10" t="n">
         <v>15854087</v>
@@ -1281,8 +1277,8 @@
           <t>2364</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>44560</v>
+      <c r="B11" t="n">
+        <v>20211230</v>
       </c>
       <c r="C11" t="n">
         <v>534324</v>
@@ -1360,8 +1356,8 @@
           <t>2365</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>44560</v>
+      <c r="B12" t="n">
+        <v>20211230</v>
       </c>
       <c r="C12" t="n">
         <v>1700675</v>
@@ -1439,8 +1435,8 @@
           <t>2376</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>44560</v>
+      <c r="B13" t="n">
+        <v>20211230</v>
       </c>
       <c r="C13" t="n">
         <v>60298149</v>
@@ -1518,8 +1514,8 @@
           <t>2377</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>44560</v>
+      <c r="B14" t="n">
+        <v>20211230</v>
       </c>
       <c r="C14" t="n">
         <v>93799483</v>
@@ -1597,8 +1593,8 @@
           <t>2380</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>44560</v>
+      <c r="B15" t="n">
+        <v>20211230</v>
       </c>
       <c r="C15" t="n">
         <v>1624620</v>
@@ -1676,8 +1672,8 @@
           <t>2382</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>44560</v>
+      <c r="B16" t="n">
+        <v>20211230</v>
       </c>
       <c r="C16" t="n">
         <v>649417390</v>
@@ -1755,8 +1751,8 @@
           <t>2387</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>44560</v>
+      <c r="B17" t="n">
+        <v>20211230</v>
       </c>
       <c r="C17" t="n">
         <v>14358279</v>
@@ -1834,8 +1830,8 @@
           <t>2395</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>44560</v>
+      <c r="B18" t="n">
+        <v>20211230</v>
       </c>
       <c r="C18" t="n">
         <v>35121490</v>
@@ -1913,8 +1909,8 @@
           <t>2397</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>44560</v>
+      <c r="B19" t="n">
+        <v>20211230</v>
       </c>
       <c r="C19" t="n">
         <v>8462476</v>
@@ -1992,8 +1988,8 @@
           <t>2399</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>44560</v>
+      <c r="B20" t="n">
+        <v>20211230</v>
       </c>
       <c r="C20" t="n">
         <v>2744806</v>
@@ -2071,8 +2067,8 @@
           <t>2405</t>
         </is>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>44560</v>
+      <c r="B21" t="n">
+        <v>20211230</v>
       </c>
       <c r="C21" t="n">
         <v>2795685</v>
@@ -2150,8 +2146,8 @@
           <t>2417</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>44560</v>
+      <c r="B22" t="n">
+        <v>20211230</v>
       </c>
       <c r="C22" t="n">
         <v>4070593</v>
@@ -2229,8 +2225,8 @@
           <t>2425</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>44560</v>
+      <c r="B23" t="n">
+        <v>20211230</v>
       </c>
       <c r="C23" t="n">
         <v>2902127</v>
@@ -2308,8 +2304,8 @@
           <t>2465</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>44560</v>
+      <c r="B24" t="n">
+        <v>20211230</v>
       </c>
       <c r="C24" t="n">
         <v>1741438</v>
@@ -2387,8 +2383,8 @@
           <t>2495</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>44560</v>
+      <c r="B25" t="n">
+        <v>20211230</v>
       </c>
       <c r="C25" t="n">
         <v>4915413</v>
@@ -2466,8 +2462,8 @@
           <t>3002</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>44560</v>
+      <c r="B26" t="n">
+        <v>20211230</v>
       </c>
       <c r="C26" t="n">
         <v>1510657</v>
@@ -2545,8 +2541,8 @@
           <t>3005</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>44560</v>
+      <c r="B27" t="n">
+        <v>20211230</v>
       </c>
       <c r="C27" t="n">
         <v>21642016</v>
@@ -2624,8 +2620,8 @@
           <t>3013</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>44560</v>
+      <c r="B28" t="n">
+        <v>20211230</v>
       </c>
       <c r="C28" t="n">
         <v>3868007</v>
@@ -2703,8 +2699,8 @@
           <t>3017</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>44560</v>
+      <c r="B29" t="n">
+        <v>20211230</v>
       </c>
       <c r="C29" t="n">
         <v>38631196</v>
@@ -2782,8 +2778,8 @@
           <t>3022</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>44560</v>
+      <c r="B30" t="n">
+        <v>20211230</v>
       </c>
       <c r="C30" t="n">
         <v>6837699</v>
@@ -2861,8 +2857,8 @@
           <t>3046</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>44560</v>
+      <c r="B31" t="n">
+        <v>20211230</v>
       </c>
       <c r="C31" t="n">
         <v>1299538</v>
@@ -2940,8 +2936,8 @@
           <t>3057</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>44560</v>
+      <c r="B32" t="n">
+        <v>20211230</v>
       </c>
       <c r="C32" t="n">
         <v>1065773</v>
@@ -3019,8 +3015,8 @@
           <t>3060</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>44560</v>
+      <c r="B33" t="n">
+        <v>20211230</v>
       </c>
       <c r="C33" t="n">
         <v>3234295</v>
@@ -3098,8 +3094,8 @@
           <t>3231</t>
         </is>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>44560</v>
+      <c r="B34" t="n">
+        <v>20211230</v>
       </c>
       <c r="C34" t="n">
         <v>421786551</v>
@@ -3177,8 +3173,8 @@
           <t>3416</t>
         </is>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>44560</v>
+      <c r="B35" t="n">
+        <v>20211230</v>
       </c>
       <c r="C35" t="n">
         <v>2320961</v>
@@ -3256,8 +3252,8 @@
           <t>3494</t>
         </is>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>44560</v>
+      <c r="B36" t="n">
+        <v>20211230</v>
       </c>
       <c r="C36" t="n">
         <v>466847</v>
@@ -3335,8 +3331,8 @@
           <t>3515</t>
         </is>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>44560</v>
+      <c r="B37" t="n">
+        <v>20211230</v>
       </c>
       <c r="C37" t="n">
         <v>15422807</v>
@@ -3414,8 +3410,8 @@
           <t>3652</t>
         </is>
       </c>
-      <c r="B38" s="2" t="n">
-        <v>44560</v>
+      <c r="B38" t="n">
+        <v>20211230</v>
       </c>
       <c r="C38" t="n">
         <v>1778816</v>
@@ -3493,8 +3489,8 @@
           <t>3701</t>
         </is>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>44560</v>
+      <c r="B39" t="n">
+        <v>20211230</v>
       </c>
       <c r="C39" t="n">
         <v>6967900</v>
@@ -3572,8 +3568,8 @@
           <t>3706</t>
         </is>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>44560</v>
+      <c r="B40" t="n">
+        <v>20211230</v>
       </c>
       <c r="C40" t="n">
         <v>27591458</v>
@@ -3651,8 +3647,8 @@
           <t>3712</t>
         </is>
       </c>
-      <c r="B41" s="2" t="n">
-        <v>44560</v>
+      <c r="B41" t="n">
+        <v>20211230</v>
       </c>
       <c r="C41" t="n">
         <v>15569224</v>
@@ -3730,8 +3726,8 @@
           <t>4916</t>
         </is>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>44560</v>
+      <c r="B42" t="n">
+        <v>20211230</v>
       </c>
       <c r="C42" t="n">
         <v>1526637</v>
@@ -3809,8 +3805,8 @@
           <t>4938</t>
         </is>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>44560</v>
+      <c r="B43" t="n">
+        <v>20211230</v>
       </c>
       <c r="C43" t="n">
         <v>564850826</v>
@@ -3888,8 +3884,8 @@
           <t>5215</t>
         </is>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>44560</v>
+      <c r="B44" t="n">
+        <v>20211230</v>
       </c>
       <c r="C44" t="n">
         <v>3591549</v>
@@ -3967,8 +3963,8 @@
           <t>5258</t>
         </is>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>44560</v>
+      <c r="B45" t="n">
+        <v>20211230</v>
       </c>
       <c r="C45" t="n">
         <v>3743851</v>
@@ -4046,8 +4042,8 @@
           <t>6117</t>
         </is>
       </c>
-      <c r="B46" s="2" t="n">
-        <v>44560</v>
+      <c r="B46" t="n">
+        <v>20211230</v>
       </c>
       <c r="C46" t="n">
         <v>1863412</v>
@@ -4125,8 +4121,8 @@
           <t>6128</t>
         </is>
       </c>
-      <c r="B47" s="2" t="n">
-        <v>44560</v>
+      <c r="B47" t="n">
+        <v>20211230</v>
       </c>
       <c r="C47" t="n">
         <v>2707320</v>
@@ -4204,8 +4200,8 @@
           <t>6166</t>
         </is>
       </c>
-      <c r="B48" s="2" t="n">
-        <v>44560</v>
+      <c r="B48" t="n">
+        <v>20211230</v>
       </c>
       <c r="C48" t="n">
         <v>7597107</v>
@@ -4283,8 +4279,8 @@
           <t>6206</t>
         </is>
       </c>
-      <c r="B49" s="2" t="n">
-        <v>44560</v>
+      <c r="B49" t="n">
+        <v>20211230</v>
       </c>
       <c r="C49" t="n">
         <v>4729183</v>
@@ -4362,8 +4358,8 @@
           <t>6230</t>
         </is>
       </c>
-      <c r="B50" s="2" t="n">
-        <v>44560</v>
+      <c r="B50" t="n">
+        <v>20211230</v>
       </c>
       <c r="C50" t="n">
         <v>7650612</v>
@@ -4441,8 +4437,8 @@
           <t>6235</t>
         </is>
       </c>
-      <c r="B51" s="2" t="n">
-        <v>44560</v>
+      <c r="B51" t="n">
+        <v>20211230</v>
       </c>
       <c r="C51" t="n">
         <v>2525136</v>
@@ -4520,8 +4516,8 @@
           <t>6277</t>
         </is>
       </c>
-      <c r="B52" s="2" t="n">
-        <v>44560</v>
+      <c r="B52" t="n">
+        <v>20211230</v>
       </c>
       <c r="C52" t="n">
         <v>4204302</v>
@@ -4599,8 +4595,8 @@
           <t>6414</t>
         </is>
       </c>
-      <c r="B53" s="2" t="n">
-        <v>44560</v>
+      <c r="B53" t="n">
+        <v>20211230</v>
       </c>
       <c r="C53" t="n">
         <v>66384775</v>
@@ -4678,8 +4674,8 @@
           <t>6579</t>
         </is>
       </c>
-      <c r="B54" s="2" t="n">
-        <v>44560</v>
+      <c r="B54" t="n">
+        <v>20211230</v>
       </c>
       <c r="C54" t="n">
         <v>5143956</v>
@@ -4757,8 +4753,8 @@
           <t>6591</t>
         </is>
       </c>
-      <c r="B55" s="2" t="n">
-        <v>44560</v>
+      <c r="B55" t="n">
+        <v>20211230</v>
       </c>
       <c r="C55" t="n">
         <v>1657290</v>
@@ -4836,8 +4832,8 @@
           <t>6669</t>
         </is>
       </c>
-      <c r="B56" s="2" t="n">
-        <v>44560</v>
+      <c r="B56" t="n">
+        <v>20211230</v>
       </c>
       <c r="C56" t="n">
         <v>82025003</v>
@@ -4915,8 +4911,8 @@
           <t>6933</t>
         </is>
       </c>
-      <c r="B57" s="2" t="n">
-        <v>44560</v>
+      <c r="B57" t="n">
+        <v>20211230</v>
       </c>
       <c r="C57" t="n">
         <v>2155768</v>
@@ -4994,8 +4990,8 @@
           <t>8114</t>
         </is>
       </c>
-      <c r="B58" s="2" t="n">
-        <v>44560</v>
+      <c r="B58" t="n">
+        <v>20211230</v>
       </c>
       <c r="C58" t="n">
         <v>7124792</v>
@@ -5073,8 +5069,8 @@
           <t>8163</t>
         </is>
       </c>
-      <c r="B59" s="2" t="n">
-        <v>44560</v>
+      <c r="B59" t="n">
+        <v>20211230</v>
       </c>
       <c r="C59" t="n">
         <v>21078564</v>
@@ -5152,8 +5148,8 @@
           <t>8210</t>
         </is>
       </c>
-      <c r="B60" s="2" t="n">
-        <v>44560</v>
+      <c r="B60" t="n">
+        <v>20211230</v>
       </c>
       <c r="C60" t="n">
         <v>6494909</v>
@@ -5231,8 +5227,8 @@
           <t>9912</t>
         </is>
       </c>
-      <c r="B61" s="2" t="n">
-        <v>44560</v>
+      <c r="B61" t="n">
+        <v>20211230</v>
       </c>
       <c r="C61" t="n">
         <v>441796</v>

--- a/dataset/cleanData/dataYear/data_2021.xlsx
+++ b/dataset/cleanData/dataYear/data_2021.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/dataset/cleanData/dataYear/data_2021.xlsx
+++ b/dataset/cleanData/dataYear/data_2021.xlsx
@@ -3091,226 +3091,226 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>3416</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>20211230</v>
       </c>
       <c r="C34" t="n">
-        <v>421786551</v>
+        <v>2320961</v>
       </c>
       <c r="D34" t="n">
-        <v>75511255</v>
+        <v>1208922</v>
       </c>
       <c r="E34" t="n">
-        <v>497297806</v>
+        <v>3529883</v>
       </c>
       <c r="F34" t="n">
-        <v>365583359</v>
+        <v>740940</v>
       </c>
       <c r="G34" t="n">
-        <v>39229668</v>
+        <v>501456</v>
       </c>
       <c r="H34" t="n">
-        <v>404813027</v>
+        <v>1242396</v>
       </c>
       <c r="I34" t="n">
-        <v>92484779</v>
+        <v>2287487</v>
       </c>
       <c r="J34" t="n">
-        <v>497297806</v>
+        <v>3529883</v>
       </c>
       <c r="K34" t="n">
-        <v>29032521</v>
+        <v>725060</v>
       </c>
       <c r="L34" t="n">
-        <v>29032521</v>
+        <v>725390</v>
       </c>
       <c r="M34" t="n">
-        <v>-1607259</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>19234277</v>
+        <v>438726</v>
       </c>
       <c r="O34" t="n">
-        <v>14.1</v>
+        <v>42.43</v>
       </c>
       <c r="P34" t="n">
-        <v>1.71</v>
+        <v>14.58</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.23</v>
+        <v>17.54</v>
       </c>
       <c r="R34" t="n">
-        <v>5.93</v>
+        <v>33.5</v>
       </c>
       <c r="S34" t="n">
-        <v>1.9</v>
+        <v>17.48</v>
       </c>
       <c r="T34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3416</t>
+          <t>3494</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>20211230</v>
       </c>
       <c r="C35" t="n">
-        <v>2320961</v>
+        <v>466847</v>
       </c>
       <c r="D35" t="n">
-        <v>1208922</v>
+        <v>1772654</v>
       </c>
       <c r="E35" t="n">
-        <v>3529883</v>
+        <v>2239501</v>
       </c>
       <c r="F35" t="n">
-        <v>740940</v>
+        <v>718178</v>
       </c>
       <c r="G35" t="n">
-        <v>501456</v>
+        <v>481729</v>
       </c>
       <c r="H35" t="n">
-        <v>1242396</v>
+        <v>1199907</v>
       </c>
       <c r="I35" t="n">
-        <v>2287487</v>
+        <v>1039594</v>
       </c>
       <c r="J35" t="n">
-        <v>3529883</v>
+        <v>2239501</v>
       </c>
       <c r="K35" t="n">
-        <v>725060</v>
+        <v>1200000</v>
       </c>
       <c r="L35" t="n">
-        <v>725390</v>
+        <v>1200000</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>438726</v>
+        <v>-243327</v>
       </c>
       <c r="O35" t="n">
-        <v>42.43</v>
+        <v>67.11</v>
       </c>
       <c r="P35" t="n">
-        <v>14.58</v>
+        <v>-53.69</v>
       </c>
       <c r="Q35" t="n">
-        <v>17.54</v>
+        <v>-53.41</v>
       </c>
       <c r="R35" t="n">
-        <v>33.5</v>
+        <v>11.98</v>
       </c>
       <c r="S35" t="n">
-        <v>17.48</v>
+        <v>-53.7</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3494</t>
+          <t>3652</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>20211230</v>
       </c>
       <c r="C36" t="n">
-        <v>466847</v>
+        <v>1778816</v>
       </c>
       <c r="D36" t="n">
-        <v>1772654</v>
+        <v>539317</v>
       </c>
       <c r="E36" t="n">
-        <v>2239501</v>
+        <v>2318133</v>
       </c>
       <c r="F36" t="n">
-        <v>718178</v>
+        <v>488944</v>
       </c>
       <c r="G36" t="n">
-        <v>481729</v>
+        <v>86029</v>
       </c>
       <c r="H36" t="n">
-        <v>1199907</v>
+        <v>574973</v>
       </c>
       <c r="I36" t="n">
-        <v>1039594</v>
+        <v>1743160</v>
       </c>
       <c r="J36" t="n">
-        <v>2239501</v>
+        <v>2318133</v>
       </c>
       <c r="K36" t="n">
-        <v>1200000</v>
+        <v>750975</v>
       </c>
       <c r="L36" t="n">
-        <v>1200000</v>
+        <v>750975</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>-243327</v>
+        <v>78623</v>
       </c>
       <c r="O36" t="n">
-        <v>67.11</v>
+        <v>204.03</v>
       </c>
       <c r="P36" t="n">
-        <v>-53.69</v>
+        <v>2.2</v>
       </c>
       <c r="Q36" t="n">
-        <v>-53.41</v>
+        <v>3.34</v>
       </c>
       <c r="R36" t="n">
-        <v>11.98</v>
+        <v>31.85</v>
       </c>
       <c r="S36" t="n">
-        <v>-53.7</v>
+        <v>3.57</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3319,320 +3319,320 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>3701</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>20211230</v>
       </c>
       <c r="C37" t="n">
-        <v>15422807</v>
+        <v>6967900</v>
       </c>
       <c r="D37" t="n">
-        <v>471143</v>
+        <v>2289879</v>
       </c>
       <c r="E37" t="n">
-        <v>15893950</v>
+        <v>9257779</v>
       </c>
       <c r="F37" t="n">
-        <v>7013600</v>
+        <v>3162973</v>
       </c>
       <c r="G37" t="n">
-        <v>91506</v>
+        <v>1571998</v>
       </c>
       <c r="H37" t="n">
-        <v>7105106</v>
+        <v>4734971</v>
       </c>
       <c r="I37" t="n">
-        <v>8788844</v>
+        <v>4522808</v>
       </c>
       <c r="J37" t="n">
-        <v>15893950</v>
+        <v>9257779</v>
       </c>
       <c r="K37" t="n">
-        <v>1229254</v>
+        <v>2109305</v>
       </c>
       <c r="L37" t="n">
-        <v>1229254</v>
+        <v>2109305</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>3059966</v>
+        <v>398802</v>
       </c>
       <c r="O37" t="n">
-        <v>63.06</v>
+        <v>3314.75</v>
       </c>
       <c r="P37" t="n">
-        <v>12.45</v>
+        <v>4.06</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.48</v>
+        <v>3.97</v>
       </c>
       <c r="R37" t="n">
-        <v>28.15</v>
+        <v>12.1</v>
       </c>
       <c r="S37" t="n">
-        <v>15.47</v>
+        <v>1.6</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3652</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>20211230</v>
       </c>
       <c r="C38" t="n">
-        <v>1778816</v>
+        <v>15569224</v>
       </c>
       <c r="D38" t="n">
-        <v>539317</v>
+        <v>8974612</v>
       </c>
       <c r="E38" t="n">
-        <v>2318133</v>
+        <v>24543836</v>
       </c>
       <c r="F38" t="n">
-        <v>488944</v>
+        <v>9293411</v>
       </c>
       <c r="G38" t="n">
-        <v>86029</v>
+        <v>3259907</v>
       </c>
       <c r="H38" t="n">
-        <v>574973</v>
+        <v>12553318</v>
       </c>
       <c r="I38" t="n">
-        <v>1743160</v>
+        <v>11990518</v>
       </c>
       <c r="J38" t="n">
-        <v>2318133</v>
+        <v>24543836</v>
       </c>
       <c r="K38" t="n">
-        <v>750975</v>
+        <v>2462421</v>
       </c>
       <c r="L38" t="n">
-        <v>750975</v>
+        <v>2462421</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>78623</v>
+        <v>849600</v>
       </c>
       <c r="O38" t="n">
-        <v>204.03</v>
+        <v>248.34</v>
       </c>
       <c r="P38" t="n">
-        <v>2.2</v>
+        <v>5.57</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.34</v>
+        <v>7.56</v>
       </c>
       <c r="R38" t="n">
-        <v>31.85</v>
+        <v>16.22</v>
       </c>
       <c r="S38" t="n">
-        <v>3.57</v>
+        <v>5.58</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U38" t="n">
         <v>3</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3701</t>
+          <t>4916</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>20211230</v>
       </c>
       <c r="C39" t="n">
-        <v>6967900</v>
+        <v>1526637</v>
       </c>
       <c r="D39" t="n">
-        <v>2289879</v>
+        <v>1475333</v>
       </c>
       <c r="E39" t="n">
-        <v>9257779</v>
+        <v>3001970</v>
       </c>
       <c r="F39" t="n">
-        <v>3162973</v>
+        <v>1523616</v>
       </c>
       <c r="G39" t="n">
-        <v>1571998</v>
+        <v>265312</v>
       </c>
       <c r="H39" t="n">
-        <v>4734971</v>
+        <v>1788928</v>
       </c>
       <c r="I39" t="n">
-        <v>4522808</v>
+        <v>1213042</v>
       </c>
       <c r="J39" t="n">
-        <v>9257779</v>
+        <v>3001970</v>
       </c>
       <c r="K39" t="n">
-        <v>2109305</v>
+        <v>834544</v>
       </c>
       <c r="L39" t="n">
-        <v>2109305</v>
+        <v>834544</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>-31724</v>
       </c>
       <c r="N39" t="n">
-        <v>398802</v>
+        <v>99588</v>
       </c>
       <c r="O39" t="n">
-        <v>3314.75</v>
+        <v>158.77</v>
       </c>
       <c r="P39" t="n">
-        <v>4.06</v>
+        <v>5.07</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.97</v>
+        <v>4.75</v>
       </c>
       <c r="R39" t="n">
-        <v>12.1</v>
+        <v>15.14</v>
       </c>
       <c r="S39" t="n">
-        <v>1.6</v>
+        <v>-1.49</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>3</v>
       </c>
       <c r="V39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W39" t="n">
         <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>4938</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>20211230</v>
       </c>
       <c r="C40" t="n">
-        <v>27591458</v>
+        <v>564850826</v>
       </c>
       <c r="D40" t="n">
-        <v>48757344</v>
+        <v>111919537</v>
       </c>
       <c r="E40" t="n">
-        <v>76348802</v>
+        <v>676770363</v>
       </c>
       <c r="F40" t="n">
-        <v>15673947</v>
+        <v>428588053</v>
       </c>
       <c r="G40" t="n">
-        <v>8068490</v>
+        <v>53915433</v>
       </c>
       <c r="H40" t="n">
-        <v>23742437</v>
+        <v>482503486</v>
       </c>
       <c r="I40" t="n">
-        <v>52606365</v>
+        <v>194266877</v>
       </c>
       <c r="J40" t="n">
-        <v>76348802</v>
+        <v>676770363</v>
       </c>
       <c r="K40" t="n">
-        <v>12065568</v>
+        <v>26691316</v>
       </c>
       <c r="L40" t="n">
-        <v>12065568</v>
+        <v>26691316</v>
       </c>
       <c r="M40" t="n">
-        <v>-239876</v>
+        <v>-2558</v>
       </c>
       <c r="N40" t="n">
-        <v>18702622</v>
+        <v>28125842</v>
       </c>
       <c r="O40" t="n">
-        <v>319.59</v>
+        <v>11.63</v>
       </c>
       <c r="P40" t="n">
-        <v>28.35</v>
+        <v>1.98</v>
       </c>
       <c r="Q40" t="n">
-        <v>44.33</v>
+        <v>2.23</v>
       </c>
       <c r="R40" t="n">
-        <v>10.34</v>
+        <v>3.69</v>
       </c>
       <c r="S40" t="n">
-        <v>0.1</v>
+        <v>1.33</v>
       </c>
       <c r="T40" t="n">
         <v>3</v>
       </c>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3644,226 +3644,226 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3712</t>
+          <t>5215</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>20211230</v>
       </c>
       <c r="C41" t="n">
-        <v>15569224</v>
+        <v>3591549</v>
       </c>
       <c r="D41" t="n">
-        <v>8974612</v>
+        <v>1082661</v>
       </c>
       <c r="E41" t="n">
-        <v>24543836</v>
+        <v>4674210</v>
       </c>
       <c r="F41" t="n">
-        <v>9293411</v>
+        <v>1069757</v>
       </c>
       <c r="G41" t="n">
-        <v>3259907</v>
+        <v>241459</v>
       </c>
       <c r="H41" t="n">
-        <v>12553318</v>
+        <v>1311216</v>
       </c>
       <c r="I41" t="n">
-        <v>11990518</v>
+        <v>3362994</v>
       </c>
       <c r="J41" t="n">
-        <v>24543836</v>
+        <v>4674210</v>
       </c>
       <c r="K41" t="n">
-        <v>2462421</v>
+        <v>643375</v>
       </c>
       <c r="L41" t="n">
-        <v>2462421</v>
+        <v>643375</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>849600</v>
+        <v>764293</v>
       </c>
       <c r="O41" t="n">
-        <v>248.34</v>
+        <v>-26.02</v>
       </c>
       <c r="P41" t="n">
-        <v>5.57</v>
+        <v>14.95</v>
       </c>
       <c r="Q41" t="n">
-        <v>7.56</v>
+        <v>20.81</v>
       </c>
       <c r="R41" t="n">
-        <v>16.22</v>
+        <v>31.21</v>
       </c>
       <c r="S41" t="n">
-        <v>5.58</v>
+        <v>20.62</v>
       </c>
       <c r="T41" t="n">
         <v>2</v>
       </c>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4916</t>
+          <t>5258</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>20211230</v>
       </c>
       <c r="C42" t="n">
-        <v>1526637</v>
+        <v>3743851</v>
       </c>
       <c r="D42" t="n">
-        <v>1475333</v>
+        <v>839654</v>
       </c>
       <c r="E42" t="n">
-        <v>3001970</v>
+        <v>4583505</v>
       </c>
       <c r="F42" t="n">
-        <v>1523616</v>
+        <v>2507272</v>
       </c>
       <c r="G42" t="n">
-        <v>265312</v>
+        <v>390367</v>
       </c>
       <c r="H42" t="n">
-        <v>1788928</v>
+        <v>2897639</v>
       </c>
       <c r="I42" t="n">
-        <v>1213042</v>
+        <v>1685866</v>
       </c>
       <c r="J42" t="n">
-        <v>3001970</v>
+        <v>4583505</v>
       </c>
       <c r="K42" t="n">
-        <v>834544</v>
+        <v>895426</v>
       </c>
       <c r="L42" t="n">
-        <v>834544</v>
+        <v>895426</v>
       </c>
       <c r="M42" t="n">
-        <v>-31724</v>
+        <v>-18051</v>
       </c>
       <c r="N42" t="n">
-        <v>99588</v>
+        <v>278675</v>
       </c>
       <c r="O42" t="n">
-        <v>158.77</v>
+        <v>13.51</v>
       </c>
       <c r="P42" t="n">
-        <v>5.07</v>
+        <v>5.3</v>
       </c>
       <c r="Q42" t="n">
-        <v>4.75</v>
+        <v>6.25</v>
       </c>
       <c r="R42" t="n">
-        <v>15.14</v>
+        <v>27.73</v>
       </c>
       <c r="S42" t="n">
-        <v>-1.49</v>
+        <v>7.36</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>2</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>6117</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>20211230</v>
       </c>
       <c r="C43" t="n">
-        <v>564850826</v>
+        <v>1863412</v>
       </c>
       <c r="D43" t="n">
-        <v>111919537</v>
+        <v>1943538</v>
       </c>
       <c r="E43" t="n">
-        <v>676770363</v>
+        <v>3806950</v>
       </c>
       <c r="F43" t="n">
-        <v>428588053</v>
+        <v>1806489</v>
       </c>
       <c r="G43" t="n">
-        <v>53915433</v>
+        <v>939121</v>
       </c>
       <c r="H43" t="n">
-        <v>482503486</v>
+        <v>2745610</v>
       </c>
       <c r="I43" t="n">
-        <v>194266877</v>
+        <v>1061340</v>
       </c>
       <c r="J43" t="n">
-        <v>676770363</v>
+        <v>3806950</v>
       </c>
       <c r="K43" t="n">
-        <v>26691316</v>
+        <v>886500</v>
       </c>
       <c r="L43" t="n">
-        <v>26691316</v>
+        <v>886500</v>
       </c>
       <c r="M43" t="n">
-        <v>-2558</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>28125842</v>
+        <v>-96420</v>
       </c>
       <c r="O43" t="n">
-        <v>11.63</v>
+        <v>-9.65</v>
       </c>
       <c r="P43" t="n">
-        <v>1.98</v>
+        <v>-4.33</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.23</v>
+        <v>-4.17</v>
       </c>
       <c r="R43" t="n">
-        <v>3.69</v>
+        <v>16.8</v>
       </c>
       <c r="S43" t="n">
-        <v>1.33</v>
+        <v>-3.6</v>
       </c>
       <c r="T43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3881,378 +3881,378 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5215</t>
+          <t>6128</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>20211230</v>
       </c>
       <c r="C44" t="n">
-        <v>3591549</v>
+        <v>2707320</v>
       </c>
       <c r="D44" t="n">
-        <v>1082661</v>
+        <v>4076833</v>
       </c>
       <c r="E44" t="n">
-        <v>4674210</v>
+        <v>6784153</v>
       </c>
       <c r="F44" t="n">
-        <v>1069757</v>
+        <v>2852675</v>
       </c>
       <c r="G44" t="n">
-        <v>241459</v>
+        <v>656593</v>
       </c>
       <c r="H44" t="n">
-        <v>1311216</v>
+        <v>3509268</v>
       </c>
       <c r="I44" t="n">
-        <v>3362994</v>
+        <v>3274885</v>
       </c>
       <c r="J44" t="n">
-        <v>4674210</v>
+        <v>6784153</v>
       </c>
       <c r="K44" t="n">
-        <v>643375</v>
+        <v>1275887</v>
       </c>
       <c r="L44" t="n">
-        <v>643375</v>
+        <v>1275887</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>764293</v>
+        <v>462290</v>
       </c>
       <c r="O44" t="n">
-        <v>-26.02</v>
+        <v>126.46</v>
       </c>
       <c r="P44" t="n">
-        <v>14.95</v>
+        <v>6.84</v>
       </c>
       <c r="Q44" t="n">
-        <v>20.81</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="R44" t="n">
-        <v>31.21</v>
+        <v>39.67</v>
       </c>
       <c r="S44" t="n">
-        <v>20.62</v>
+        <v>8.58</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5258</t>
+          <t>6166</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>20211230</v>
       </c>
       <c r="C45" t="n">
-        <v>3743851</v>
+        <v>7597107</v>
       </c>
       <c r="D45" t="n">
-        <v>839654</v>
+        <v>5583003</v>
       </c>
       <c r="E45" t="n">
-        <v>4583505</v>
+        <v>13180110</v>
       </c>
       <c r="F45" t="n">
-        <v>2507272</v>
+        <v>5933113</v>
       </c>
       <c r="G45" t="n">
-        <v>390367</v>
+        <v>2826556</v>
       </c>
       <c r="H45" t="n">
-        <v>2897639</v>
+        <v>8759669</v>
       </c>
       <c r="I45" t="n">
-        <v>1685866</v>
+        <v>4420441</v>
       </c>
       <c r="J45" t="n">
-        <v>4583505</v>
+        <v>13180110</v>
       </c>
       <c r="K45" t="n">
-        <v>895426</v>
+        <v>2174973</v>
       </c>
       <c r="L45" t="n">
-        <v>895426</v>
+        <v>2174973</v>
       </c>
       <c r="M45" t="n">
-        <v>-18051</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>278675</v>
+        <v>202910</v>
       </c>
       <c r="O45" t="n">
-        <v>13.51</v>
+        <v>-50.8</v>
       </c>
       <c r="P45" t="n">
-        <v>5.3</v>
+        <v>1.23</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.25</v>
+        <v>2.1</v>
       </c>
       <c r="R45" t="n">
-        <v>27.73</v>
+        <v>36.76</v>
       </c>
       <c r="S45" t="n">
-        <v>7.36</v>
+        <v>1.43</v>
       </c>
       <c r="T45" t="n">
         <v>1</v>
       </c>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6117</t>
+          <t>6206</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>20211230</v>
       </c>
       <c r="C46" t="n">
-        <v>1863412</v>
+        <v>4729183</v>
       </c>
       <c r="D46" t="n">
-        <v>1943538</v>
+        <v>1588988</v>
       </c>
       <c r="E46" t="n">
-        <v>3806950</v>
+        <v>6318171</v>
       </c>
       <c r="F46" t="n">
-        <v>1806489</v>
+        <v>1441047</v>
       </c>
       <c r="G46" t="n">
-        <v>939121</v>
+        <v>135989</v>
       </c>
       <c r="H46" t="n">
-        <v>2745610</v>
+        <v>1577036</v>
       </c>
       <c r="I46" t="n">
-        <v>1061340</v>
+        <v>4741135</v>
       </c>
       <c r="J46" t="n">
-        <v>3806950</v>
+        <v>6318171</v>
       </c>
       <c r="K46" t="n">
-        <v>886500</v>
+        <v>1430623</v>
       </c>
       <c r="L46" t="n">
-        <v>886500</v>
+        <v>1430623</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-96420</v>
+        <v>822182</v>
       </c>
       <c r="O46" t="n">
-        <v>-9.65</v>
+        <v>15.58</v>
       </c>
       <c r="P46" t="n">
-        <v>-4.33</v>
+        <v>13.33</v>
       </c>
       <c r="Q46" t="n">
-        <v>-4.17</v>
+        <v>15.86</v>
       </c>
       <c r="R46" t="n">
-        <v>16.8</v>
+        <v>32.85</v>
       </c>
       <c r="S46" t="n">
-        <v>-3.6</v>
+        <v>15.85</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6128</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>20211230</v>
       </c>
       <c r="C47" t="n">
-        <v>2707320</v>
+        <v>7650612</v>
       </c>
       <c r="D47" t="n">
-        <v>4076833</v>
+        <v>2871236</v>
       </c>
       <c r="E47" t="n">
-        <v>6784153</v>
+        <v>10521848</v>
       </c>
       <c r="F47" t="n">
-        <v>2852675</v>
+        <v>4427677</v>
       </c>
       <c r="G47" t="n">
-        <v>656593</v>
+        <v>1426011</v>
       </c>
       <c r="H47" t="n">
-        <v>3509268</v>
+        <v>5853688</v>
       </c>
       <c r="I47" t="n">
-        <v>3274885</v>
+        <v>4668160</v>
       </c>
       <c r="J47" t="n">
-        <v>6784153</v>
+        <v>10521848</v>
       </c>
       <c r="K47" t="n">
-        <v>1275887</v>
+        <v>863434</v>
       </c>
       <c r="L47" t="n">
-        <v>1275887</v>
+        <v>863434</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>462290</v>
+        <v>512508</v>
       </c>
       <c r="O47" t="n">
-        <v>126.46</v>
+        <v>-55.31</v>
       </c>
       <c r="P47" t="n">
-        <v>6.84</v>
+        <v>3.18</v>
       </c>
       <c r="Q47" t="n">
-        <v>9.390000000000001</v>
+        <v>4.65</v>
       </c>
       <c r="R47" t="n">
-        <v>39.67</v>
+        <v>15.71</v>
       </c>
       <c r="S47" t="n">
-        <v>8.58</v>
+        <v>4.2</v>
       </c>
       <c r="T47" t="n">
         <v>1</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6166</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>20211230</v>
       </c>
       <c r="C48" t="n">
-        <v>7597107</v>
+        <v>2525136</v>
       </c>
       <c r="D48" t="n">
-        <v>5583003</v>
+        <v>2601481</v>
       </c>
       <c r="E48" t="n">
-        <v>13180110</v>
+        <v>5126617</v>
       </c>
       <c r="F48" t="n">
-        <v>5933113</v>
+        <v>2553473</v>
       </c>
       <c r="G48" t="n">
-        <v>2826556</v>
+        <v>102788</v>
       </c>
       <c r="H48" t="n">
-        <v>8759669</v>
+        <v>2656261</v>
       </c>
       <c r="I48" t="n">
-        <v>4420441</v>
+        <v>2470356</v>
       </c>
       <c r="J48" t="n">
-        <v>13180110</v>
+        <v>5126617</v>
       </c>
       <c r="K48" t="n">
-        <v>2174973</v>
+        <v>1716335</v>
       </c>
       <c r="L48" t="n">
-        <v>2174973</v>
+        <v>1735522</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>202910</v>
+        <v>202611</v>
       </c>
       <c r="O48" t="n">
-        <v>-50.8</v>
+        <v>-74.65000000000001</v>
       </c>
       <c r="P48" t="n">
-        <v>1.23</v>
+        <v>5.83</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.1</v>
+        <v>7.17</v>
       </c>
       <c r="R48" t="n">
-        <v>36.76</v>
+        <v>25.98</v>
       </c>
       <c r="S48" t="n">
-        <v>1.43</v>
+        <v>4.3</v>
       </c>
       <c r="T48" t="n">
         <v>1</v>
@@ -4261,13 +4261,13 @@
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y48" t="n">
         <v>1</v>
@@ -4276,68 +4276,68 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6206</t>
+          <t>6277</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>20211230</v>
       </c>
       <c r="C49" t="n">
-        <v>4729183</v>
+        <v>4204302</v>
       </c>
       <c r="D49" t="n">
-        <v>1588988</v>
+        <v>3088527</v>
       </c>
       <c r="E49" t="n">
-        <v>6318171</v>
+        <v>7292829</v>
       </c>
       <c r="F49" t="n">
-        <v>1441047</v>
+        <v>2051859</v>
       </c>
       <c r="G49" t="n">
-        <v>135989</v>
+        <v>497173</v>
       </c>
       <c r="H49" t="n">
-        <v>1577036</v>
+        <v>2549032</v>
       </c>
       <c r="I49" t="n">
-        <v>4741135</v>
+        <v>4743797</v>
       </c>
       <c r="J49" t="n">
-        <v>6318171</v>
+        <v>7292829</v>
       </c>
       <c r="K49" t="n">
-        <v>1430623</v>
+        <v>1194711</v>
       </c>
       <c r="L49" t="n">
-        <v>1430623</v>
+        <v>1194711</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>822182</v>
+        <v>868191</v>
       </c>
       <c r="O49" t="n">
-        <v>15.58</v>
+        <v>-57.1</v>
       </c>
       <c r="P49" t="n">
-        <v>13.33</v>
+        <v>12.48</v>
       </c>
       <c r="Q49" t="n">
-        <v>15.86</v>
+        <v>16.81</v>
       </c>
       <c r="R49" t="n">
-        <v>32.85</v>
+        <v>58.26</v>
       </c>
       <c r="S49" t="n">
-        <v>15.85</v>
+        <v>15.6</v>
       </c>
       <c r="T49" t="n">
         <v>2</v>
       </c>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
         <v>3</v>
@@ -4355,68 +4355,68 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6414</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>20211230</v>
       </c>
       <c r="C50" t="n">
-        <v>7650612</v>
+        <v>66384775</v>
       </c>
       <c r="D50" t="n">
-        <v>2871236</v>
+        <v>34241118</v>
       </c>
       <c r="E50" t="n">
-        <v>10521848</v>
+        <v>100625893</v>
       </c>
       <c r="F50" t="n">
-        <v>4427677</v>
+        <v>47314850</v>
       </c>
       <c r="G50" t="n">
-        <v>1426011</v>
+        <v>21940856</v>
       </c>
       <c r="H50" t="n">
-        <v>5853688</v>
+        <v>69255706</v>
       </c>
       <c r="I50" t="n">
-        <v>4668160</v>
+        <v>31370187</v>
       </c>
       <c r="J50" t="n">
-        <v>10521848</v>
+        <v>100625893</v>
       </c>
       <c r="K50" t="n">
-        <v>863434</v>
+        <v>1018120</v>
       </c>
       <c r="L50" t="n">
-        <v>863434</v>
+        <v>1018120</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>-233608</v>
       </c>
       <c r="N50" t="n">
-        <v>512508</v>
+        <v>4249253</v>
       </c>
       <c r="O50" t="n">
-        <v>-55.31</v>
+        <v>7.09</v>
       </c>
       <c r="P50" t="n">
-        <v>3.18</v>
+        <v>3.47</v>
       </c>
       <c r="Q50" t="n">
-        <v>4.65</v>
+        <v>4.4</v>
       </c>
       <c r="R50" t="n">
-        <v>15.71</v>
+        <v>21.21</v>
       </c>
       <c r="S50" t="n">
-        <v>4.2</v>
+        <v>3.31</v>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
         <v>1</v>
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="X50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y50" t="n">
         <v>1</v>
@@ -4434,68 +4434,68 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>6579</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>20211230</v>
       </c>
       <c r="C51" t="n">
-        <v>2525136</v>
+        <v>5143956</v>
       </c>
       <c r="D51" t="n">
-        <v>2601481</v>
+        <v>5072049</v>
       </c>
       <c r="E51" t="n">
-        <v>5126617</v>
+        <v>10216005</v>
       </c>
       <c r="F51" t="n">
-        <v>2553473</v>
+        <v>1519846</v>
       </c>
       <c r="G51" t="n">
-        <v>102788</v>
+        <v>305631</v>
       </c>
       <c r="H51" t="n">
-        <v>2656261</v>
+        <v>1825477</v>
       </c>
       <c r="I51" t="n">
-        <v>2470356</v>
+        <v>8390528</v>
       </c>
       <c r="J51" t="n">
-        <v>5126617</v>
+        <v>10216005</v>
       </c>
       <c r="K51" t="n">
-        <v>1716335</v>
+        <v>1484985</v>
       </c>
       <c r="L51" t="n">
-        <v>1735522</v>
+        <v>1486185</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>202611</v>
+        <v>626033</v>
       </c>
       <c r="O51" t="n">
-        <v>-74.65000000000001</v>
+        <v>10.68</v>
       </c>
       <c r="P51" t="n">
-        <v>5.83</v>
+        <v>8.09</v>
       </c>
       <c r="Q51" t="n">
-        <v>7.17</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="R51" t="n">
-        <v>25.98</v>
+        <v>29.22</v>
       </c>
       <c r="S51" t="n">
-        <v>4.3</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>2</v>
@@ -4507,74 +4507,74 @@
         <v>2</v>
       </c>
       <c r="Y51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6277</t>
+          <t>6591</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>20211230</v>
       </c>
       <c r="C52" t="n">
-        <v>4204302</v>
+        <v>1657290</v>
       </c>
       <c r="D52" t="n">
-        <v>3088527</v>
+        <v>859430</v>
       </c>
       <c r="E52" t="n">
-        <v>7292829</v>
+        <v>2516720</v>
       </c>
       <c r="F52" t="n">
-        <v>2051859</v>
+        <v>829700</v>
       </c>
       <c r="G52" t="n">
-        <v>497173</v>
+        <v>164526</v>
       </c>
       <c r="H52" t="n">
-        <v>2549032</v>
+        <v>994226</v>
       </c>
       <c r="I52" t="n">
-        <v>4743797</v>
+        <v>1522494</v>
       </c>
       <c r="J52" t="n">
-        <v>7292829</v>
+        <v>2516720</v>
       </c>
       <c r="K52" t="n">
-        <v>1194711</v>
+        <v>320979</v>
       </c>
       <c r="L52" t="n">
-        <v>1194711</v>
+        <v>320979</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>868191</v>
+        <v>325978</v>
       </c>
       <c r="O52" t="n">
-        <v>-57.1</v>
+        <v>33.09</v>
       </c>
       <c r="P52" t="n">
-        <v>12.48</v>
+        <v>11.86</v>
       </c>
       <c r="Q52" t="n">
-        <v>16.81</v>
+        <v>17.72</v>
       </c>
       <c r="R52" t="n">
-        <v>58.26</v>
+        <v>30.96</v>
       </c>
       <c r="S52" t="n">
-        <v>15.6</v>
+        <v>18.12</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" t="n">
         <v>3</v>
@@ -4583,7 +4583,7 @@
         <v>3</v>
       </c>
       <c r="X52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y52" t="n">
         <v>3</v>
@@ -4592,65 +4592,65 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6414</t>
+          <t>6669</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>20211230</v>
       </c>
       <c r="C53" t="n">
-        <v>66384775</v>
+        <v>82025003</v>
       </c>
       <c r="D53" t="n">
-        <v>34241118</v>
+        <v>2712455</v>
       </c>
       <c r="E53" t="n">
-        <v>100625893</v>
+        <v>84737458</v>
       </c>
       <c r="F53" t="n">
-        <v>47314850</v>
+        <v>47165833</v>
       </c>
       <c r="G53" t="n">
-        <v>21940856</v>
+        <v>10201599</v>
       </c>
       <c r="H53" t="n">
-        <v>69255706</v>
+        <v>57367432</v>
       </c>
       <c r="I53" t="n">
-        <v>31370187</v>
+        <v>27370026</v>
       </c>
       <c r="J53" t="n">
-        <v>100625893</v>
+        <v>84737458</v>
       </c>
       <c r="K53" t="n">
-        <v>1018120</v>
+        <v>1748408</v>
       </c>
       <c r="L53" t="n">
-        <v>1018120</v>
+        <v>1748408</v>
       </c>
       <c r="M53" t="n">
-        <v>-233608</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>4249253</v>
+        <v>10996069</v>
       </c>
       <c r="O53" t="n">
-        <v>7.09</v>
+        <v>0.45</v>
       </c>
       <c r="P53" t="n">
-        <v>3.47</v>
+        <v>4.49</v>
       </c>
       <c r="Q53" t="n">
-        <v>4.4</v>
+        <v>5.71</v>
       </c>
       <c r="R53" t="n">
-        <v>21.21</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="S53" t="n">
-        <v>3.31</v>
+        <v>5.91</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U53" t="n">
         <v>1</v>
@@ -4662,165 +4662,165 @@
         <v>1</v>
       </c>
       <c r="X53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6579</t>
+          <t>6933</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>20211230</v>
       </c>
       <c r="C54" t="n">
-        <v>5143956</v>
+        <v>2155768</v>
       </c>
       <c r="D54" t="n">
-        <v>5072049</v>
+        <v>173460</v>
       </c>
       <c r="E54" t="n">
-        <v>10216005</v>
+        <v>2329228</v>
       </c>
       <c r="F54" t="n">
-        <v>1519846</v>
+        <v>1334171</v>
       </c>
       <c r="G54" t="n">
-        <v>305631</v>
+        <v>55431</v>
       </c>
       <c r="H54" t="n">
-        <v>1825477</v>
+        <v>1389602</v>
       </c>
       <c r="I54" t="n">
-        <v>8390528</v>
+        <v>939626</v>
       </c>
       <c r="J54" t="n">
-        <v>10216005</v>
+        <v>2329228</v>
       </c>
       <c r="K54" t="n">
-        <v>1484985</v>
+        <v>498705</v>
       </c>
       <c r="L54" t="n">
-        <v>1486185</v>
+        <v>498705</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>626033</v>
+        <v>263760</v>
       </c>
       <c r="O54" t="n">
-        <v>10.68</v>
+        <v>1373.1</v>
       </c>
       <c r="P54" t="n">
-        <v>8.09</v>
+        <v>4.79</v>
       </c>
       <c r="Q54" t="n">
-        <v>9.859999999999999</v>
+        <v>5.06</v>
       </c>
       <c r="R54" t="n">
-        <v>29.22</v>
+        <v>12.51</v>
       </c>
       <c r="S54" t="n">
-        <v>8.640000000000001</v>
+        <v>3.09</v>
       </c>
       <c r="T54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6591</t>
+          <t>8114</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>20211230</v>
       </c>
       <c r="C55" t="n">
-        <v>1657290</v>
+        <v>7124792</v>
       </c>
       <c r="D55" t="n">
-        <v>859430</v>
+        <v>7659916</v>
       </c>
       <c r="E55" t="n">
-        <v>2516720</v>
+        <v>14784708</v>
       </c>
       <c r="F55" t="n">
-        <v>829700</v>
+        <v>3674727</v>
       </c>
       <c r="G55" t="n">
-        <v>164526</v>
+        <v>6640450</v>
       </c>
       <c r="H55" t="n">
-        <v>994226</v>
+        <v>10315177</v>
       </c>
       <c r="I55" t="n">
-        <v>1522494</v>
+        <v>4469531</v>
       </c>
       <c r="J55" t="n">
-        <v>2516720</v>
+        <v>14784708</v>
       </c>
       <c r="K55" t="n">
-        <v>320979</v>
+        <v>749218</v>
       </c>
       <c r="L55" t="n">
-        <v>320979</v>
+        <v>749218</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>325978</v>
+        <v>809478</v>
       </c>
       <c r="O55" t="n">
-        <v>33.09</v>
+        <v>438.01</v>
       </c>
       <c r="P55" t="n">
-        <v>11.86</v>
+        <v>6.19</v>
       </c>
       <c r="Q55" t="n">
-        <v>17.72</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="R55" t="n">
-        <v>30.96</v>
+        <v>35.42</v>
       </c>
       <c r="S55" t="n">
-        <v>18.12</v>
+        <v>11.47</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y55" t="n">
         <v>3</v>
@@ -4829,65 +4829,65 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>8163</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>20211230</v>
       </c>
       <c r="C56" t="n">
-        <v>82025003</v>
+        <v>21078564</v>
       </c>
       <c r="D56" t="n">
-        <v>2712455</v>
+        <v>12116710</v>
       </c>
       <c r="E56" t="n">
-        <v>84737458</v>
+        <v>33195274</v>
       </c>
       <c r="F56" t="n">
-        <v>47165833</v>
+        <v>16153908</v>
       </c>
       <c r="G56" t="n">
-        <v>10201599</v>
+        <v>4320029</v>
       </c>
       <c r="H56" t="n">
-        <v>57367432</v>
+        <v>20473937</v>
       </c>
       <c r="I56" t="n">
-        <v>27370026</v>
+        <v>12721337</v>
       </c>
       <c r="J56" t="n">
-        <v>84737458</v>
+        <v>33195274</v>
       </c>
       <c r="K56" t="n">
-        <v>1748408</v>
+        <v>2800000</v>
       </c>
       <c r="L56" t="n">
-        <v>1748408</v>
+        <v>2800000</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>10996069</v>
+        <v>1653738</v>
       </c>
       <c r="O56" t="n">
-        <v>0.45</v>
+        <v>36.53</v>
       </c>
       <c r="P56" t="n">
-        <v>4.49</v>
+        <v>4.64</v>
       </c>
       <c r="Q56" t="n">
-        <v>5.71</v>
+        <v>5.9</v>
       </c>
       <c r="R56" t="n">
-        <v>8.109999999999999</v>
+        <v>16.65</v>
       </c>
       <c r="S56" t="n">
-        <v>5.91</v>
+        <v>5.31</v>
       </c>
       <c r="T56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U56" t="n">
         <v>1</v>
@@ -4899,7 +4899,7 @@
         <v>1</v>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56" t="n">
         <v>2</v>
@@ -4908,314 +4908,314 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6933</t>
+          <t>8210</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>20211230</v>
       </c>
       <c r="C57" t="n">
-        <v>2155768</v>
+        <v>6494909</v>
       </c>
       <c r="D57" t="n">
-        <v>173460</v>
+        <v>4758086</v>
       </c>
       <c r="E57" t="n">
-        <v>2329228</v>
+        <v>11252995</v>
       </c>
       <c r="F57" t="n">
-        <v>1334171</v>
+        <v>5046663</v>
       </c>
       <c r="G57" t="n">
-        <v>55431</v>
+        <v>2029695</v>
       </c>
       <c r="H57" t="n">
-        <v>1389602</v>
+        <v>7076358</v>
       </c>
       <c r="I57" t="n">
-        <v>939626</v>
+        <v>4176637</v>
       </c>
       <c r="J57" t="n">
-        <v>2329228</v>
+        <v>11252995</v>
       </c>
       <c r="K57" t="n">
-        <v>498705</v>
+        <v>1207885</v>
       </c>
       <c r="L57" t="n">
-        <v>498705</v>
+        <v>1207885</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>263760</v>
+        <v>885990</v>
       </c>
       <c r="O57" t="n">
-        <v>1373.1</v>
+        <v>-30.97</v>
       </c>
       <c r="P57" t="n">
-        <v>4.79</v>
+        <v>7.13</v>
       </c>
       <c r="Q57" t="n">
-        <v>5.06</v>
+        <v>9.4</v>
       </c>
       <c r="R57" t="n">
-        <v>12.51</v>
+        <v>19.57</v>
       </c>
       <c r="S57" t="n">
-        <v>3.09</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="T57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>8114</t>
+          <t>9912</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>20211230</v>
       </c>
       <c r="C58" t="n">
-        <v>7124792</v>
+        <v>441796</v>
       </c>
       <c r="D58" t="n">
-        <v>7659916</v>
+        <v>322286</v>
       </c>
       <c r="E58" t="n">
-        <v>14784708</v>
+        <v>764082</v>
       </c>
       <c r="F58" t="n">
-        <v>3674727</v>
+        <v>334589</v>
       </c>
       <c r="G58" t="n">
-        <v>6640450</v>
+        <v>8908</v>
       </c>
       <c r="H58" t="n">
-        <v>10315177</v>
+        <v>343497</v>
       </c>
       <c r="I58" t="n">
-        <v>4469531</v>
+        <v>420585</v>
       </c>
       <c r="J58" t="n">
-        <v>14784708</v>
+        <v>764082</v>
       </c>
       <c r="K58" t="n">
-        <v>749218</v>
+        <v>546246</v>
       </c>
       <c r="L58" t="n">
-        <v>749218</v>
+        <v>546246</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>-24831</v>
       </c>
       <c r="N58" t="n">
-        <v>809478</v>
+        <v>26036</v>
       </c>
       <c r="O58" t="n">
-        <v>438.01</v>
+        <v>147.71</v>
       </c>
       <c r="P58" t="n">
-        <v>6.19</v>
+        <v>2.89</v>
       </c>
       <c r="Q58" t="n">
-        <v>8.789999999999999</v>
+        <v>4.12</v>
       </c>
       <c r="R58" t="n">
-        <v>35.42</v>
+        <v>34.1</v>
       </c>
       <c r="S58" t="n">
-        <v>11.47</v>
+        <v>2.2</v>
       </c>
       <c r="T58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X58" t="n">
         <v>3</v>
       </c>
       <c r="Y58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>8163</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>20211230</v>
       </c>
       <c r="C59" t="n">
-        <v>21078564</v>
+        <v>421786551</v>
       </c>
       <c r="D59" t="n">
-        <v>12116710</v>
+        <v>75511255</v>
       </c>
       <c r="E59" t="n">
-        <v>33195274</v>
+        <v>497297806</v>
       </c>
       <c r="F59" t="n">
-        <v>16153908</v>
+        <v>365583359</v>
       </c>
       <c r="G59" t="n">
-        <v>4320029</v>
+        <v>39229668</v>
       </c>
       <c r="H59" t="n">
-        <v>20473937</v>
+        <v>404813027</v>
       </c>
       <c r="I59" t="n">
-        <v>12721337</v>
+        <v>92484779</v>
       </c>
       <c r="J59" t="n">
-        <v>33195274</v>
+        <v>497297806</v>
       </c>
       <c r="K59" t="n">
-        <v>2800000</v>
+        <v>29032521</v>
       </c>
       <c r="L59" t="n">
-        <v>2800000</v>
+        <v>29032521</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>-1607259</v>
       </c>
       <c r="N59" t="n">
-        <v>1653738</v>
+        <v>19234277</v>
       </c>
       <c r="O59" t="n">
-        <v>36.53</v>
+        <v>14.1</v>
       </c>
       <c r="P59" t="n">
-        <v>4.64</v>
+        <v>1.71</v>
       </c>
       <c r="Q59" t="n">
-        <v>5.9</v>
+        <v>2.23</v>
       </c>
       <c r="R59" t="n">
-        <v>16.65</v>
+        <v>5.93</v>
       </c>
       <c r="S59" t="n">
-        <v>5.31</v>
+        <v>1.9</v>
       </c>
       <c r="T59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U59" t="n">
         <v>1</v>
       </c>
       <c r="V59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>8210</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>20211230</v>
       </c>
       <c r="C60" t="n">
-        <v>6494909</v>
+        <v>15422807</v>
       </c>
       <c r="D60" t="n">
-        <v>4758086</v>
+        <v>471143</v>
       </c>
       <c r="E60" t="n">
-        <v>11252995</v>
+        <v>15893950</v>
       </c>
       <c r="F60" t="n">
-        <v>5046663</v>
+        <v>7013600</v>
       </c>
       <c r="G60" t="n">
-        <v>2029695</v>
+        <v>91506</v>
       </c>
       <c r="H60" t="n">
-        <v>7076358</v>
+        <v>7105106</v>
       </c>
       <c r="I60" t="n">
-        <v>4176637</v>
+        <v>8788844</v>
       </c>
       <c r="J60" t="n">
-        <v>11252995</v>
+        <v>15893950</v>
       </c>
       <c r="K60" t="n">
-        <v>1207885</v>
+        <v>1229254</v>
       </c>
       <c r="L60" t="n">
-        <v>1207885</v>
+        <v>1229254</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>885990</v>
+        <v>3059966</v>
       </c>
       <c r="O60" t="n">
-        <v>-30.97</v>
+        <v>63.06</v>
       </c>
       <c r="P60" t="n">
-        <v>7.13</v>
+        <v>12.45</v>
       </c>
       <c r="Q60" t="n">
-        <v>9.4</v>
+        <v>15.48</v>
       </c>
       <c r="R60" t="n">
-        <v>19.57</v>
+        <v>28.15</v>
       </c>
       <c r="S60" t="n">
-        <v>9.359999999999999</v>
+        <v>15.47</v>
       </c>
       <c r="T60" t="n">
         <v>2</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y60" t="n">
         <v>3</v>
@@ -5224,80 +5224,80 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>9912</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>20211230</v>
       </c>
       <c r="C61" t="n">
-        <v>441796</v>
+        <v>27591458</v>
       </c>
       <c r="D61" t="n">
-        <v>322286</v>
+        <v>48757344</v>
       </c>
       <c r="E61" t="n">
-        <v>764082</v>
+        <v>76348802</v>
       </c>
       <c r="F61" t="n">
-        <v>334589</v>
+        <v>15673947</v>
       </c>
       <c r="G61" t="n">
-        <v>8908</v>
+        <v>8068490</v>
       </c>
       <c r="H61" t="n">
-        <v>343497</v>
+        <v>23742437</v>
       </c>
       <c r="I61" t="n">
-        <v>420585</v>
+        <v>52606365</v>
       </c>
       <c r="J61" t="n">
-        <v>764082</v>
+        <v>76348802</v>
       </c>
       <c r="K61" t="n">
-        <v>546246</v>
+        <v>12065568</v>
       </c>
       <c r="L61" t="n">
-        <v>546246</v>
+        <v>12065568</v>
       </c>
       <c r="M61" t="n">
-        <v>-24831</v>
+        <v>-239876</v>
       </c>
       <c r="N61" t="n">
-        <v>26036</v>
+        <v>18702622</v>
       </c>
       <c r="O61" t="n">
-        <v>147.71</v>
+        <v>319.59</v>
       </c>
       <c r="P61" t="n">
-        <v>2.89</v>
+        <v>28.35</v>
       </c>
       <c r="Q61" t="n">
-        <v>4.12</v>
+        <v>44.33</v>
       </c>
       <c r="R61" t="n">
-        <v>34.1</v>
+        <v>10.34</v>
       </c>
       <c r="S61" t="n">
-        <v>2.2</v>
+        <v>0.1</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
